--- a/src/main/webapp/modellist/教师名单模板.xlsx
+++ b/src/main/webapp/modellist/教师名单模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,14 +38,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可登录</t>
-  </si>
-  <si>
     <t>李富贵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不可登录</t>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>院系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -389,19 +405,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,12 +429,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>20001115555</v>
+        <v>2000111555</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -426,28 +449,43 @@
         <v>111111111</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2000111666</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>20001116666</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3">
         <v>111111111</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>"可登录,不可登录"</formula1>
+      <formula1>"男,女"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
